--- a/medicine/Handicap/ReWalk/ReWalk.xlsx
+++ b/medicine/Handicap/ReWalk/ReWalk.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ReWalk est un système bionique d'assistance à la marche utilisant un exosquelette motorisé pour permettre aux paraplégiques de se tenir debout, marcher et monter des escaliers[1]. Créé à Yokneam, en Israël, le ReWalk est produit par la société ReWalk Robotics (initialement dénommée Argo Medical Technologies).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ReWalk est un système bionique d'assistance à la marche utilisant un exosquelette motorisé pour permettre aux paraplégiques de se tenir debout, marcher et monter des escaliers. Créé à Yokneam, en Israël, le ReWalk est produit par la société ReWalk Robotics (initialement dénommée Argo Medical Technologies).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Premier exosquelette à assister un marathonien</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 8 mai 2012, la britannique paralysée Claire Lomas utilise un ReWalk pour devenir la première personne à finir un marathon avec un exosquelette[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 8 mai 2012, la britannique paralysée Claire Lomas utilise un ReWalk pour devenir la première personne à finir un marathon avec un exosquelette. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la série Glee, un ReWalk  est utilisé par le personnage, Artie Abrams pendant la saison 2 dans l'épisode "A Very Glee Christmas"[3],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la série Glee, un ReWalk  est utilisé par le personnage, Artie Abrams pendant la saison 2 dans l'épisode "A Very Glee Christmas",.
 </t>
         </is>
       </c>
